--- a/frame_counter info.xlsx
+++ b/frame_counter info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMusset\Documents\GitHub\FOXSI3-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A1EC53F-34CD-404A-876F-5306485E76B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7402D7EC-5C5C-41AF-91CD-08D8E571948C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10344" xr2:uid="{DFA82BB7-205F-4C9B-8E84-109BA2A4C63B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Detector</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>WSMR_time</t>
+  </si>
+  <si>
+    <t>Number of seconds this day</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -455,8 +458,8 @@
     <col min="5" max="5" width="12.15625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.15625" customWidth="1"/>
     <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.89453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -671,6 +674,9 @@
       <c r="G12" t="s">
         <v>19</v>
       </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
@@ -687,6 +693,10 @@
         <f>E13*2/1000</f>
         <v>13872.26</v>
       </c>
+      <c r="H13">
+        <f>G13+I14</f>
+        <v>62490</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -703,6 +713,14 @@
         <f t="shared" ref="G14:G19" si="0">E14*2/1000</f>
         <v>13842.26</v>
       </c>
+      <c r="H14">
+        <f>17*3600+21*60</f>
+        <v>62460</v>
+      </c>
+      <c r="I14">
+        <f>H14-G14</f>
+        <v>48617.74</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
@@ -719,6 +737,10 @@
         <f t="shared" si="0"/>
         <v>13939.26</v>
       </c>
+      <c r="H15">
+        <f>G15+I$14</f>
+        <v>62557</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -735,8 +757,12 @@
         <f t="shared" si="0"/>
         <v>14074.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16">
+        <f>G16+I$14</f>
+        <v>62692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -751,8 +777,12 @@
         <f t="shared" si="0"/>
         <v>14106.26</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17">
+        <f>G17+I$14</f>
+        <v>62724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -767,8 +797,12 @@
         <f t="shared" si="0"/>
         <v>14258.26</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18">
+        <f>G18+I$14</f>
+        <v>62876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -782,6 +816,10 @@
       <c r="G19">
         <f t="shared" si="0"/>
         <v>14289.26</v>
+      </c>
+      <c r="H19">
+        <f>G19+I$14</f>
+        <v>62907</v>
       </c>
     </row>
   </sheetData>
